--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatM.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatM.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="4512" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="56">
   <si>
     <t>TC</t>
   </si>
@@ -182,12 +187,15 @@
   </si>
   <si>
     <t>FourWeekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,13 +302,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -349,7 +360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,9 +393,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,6 +445,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -592,22 +637,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -635,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -649,7 +694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -663,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -674,7 +719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -685,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -703,24 +748,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.33203125" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.28515625" style="5" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -743,7 +788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -760,7 +805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -777,7 +822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -795,7 +840,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -813,7 +858,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -831,7 +876,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -849,7 +894,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -867,7 +912,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -885,7 +930,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -903,10 +948,10 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
     </row>
   </sheetData>
@@ -916,28 +961,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
@@ -978,7 +1023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="17" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="17" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>44</v>
       </c>
@@ -1013,7 +1058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>44</v>
       </c>
@@ -1049,7 +1094,7 @@
       </c>
       <c r="L3" s="17"/>
     </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>44</v>
       </c>
@@ -1085,7 +1130,7 @@
       </c>
       <c r="L4" s="17"/>
     </row>
-    <row r="5" spans="1:13" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>44</v>
       </c>
@@ -1121,7 +1166,7 @@
       </c>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>44</v>
       </c>
@@ -1157,7 +1202,7 @@
       </c>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>44</v>
       </c>
@@ -1193,7 +1238,7 @@
       </c>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -1229,7 +1274,7 @@
       </c>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>44</v>
       </c>
@@ -1264,7 +1309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>44</v>
       </c>
@@ -1301,15 +1346,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
@@ -1317,30 +1362,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="56.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="56.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
@@ -1384,7 +1429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
@@ -1407,7 +1452,7 @@
         <v>46</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>52</v>
@@ -1424,7 +1469,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatM.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="55">
   <si>
     <t>TC</t>
   </si>
@@ -165,9 +165,6 @@
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -189,13 +186,13 @@
     <t>FourWeekly_Payroll</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,7 +299,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -637,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -748,7 +745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -961,11 +958,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H10" activeCellId="3" sqref="H10 H10 H10 H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1028,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>32</v>
@@ -1040,19 +1037,19 @@
         <v>45</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>46</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>6</v>
@@ -1066,7 +1063,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>32</v>
@@ -1075,19 +1072,19 @@
         <v>45</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>6</v>
@@ -1102,7 +1099,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>32</v>
@@ -1111,19 +1108,19 @@
         <v>45</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>46</v>
       </c>
       <c r="H4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>6</v>
@@ -1138,7 +1135,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>32</v>
@@ -1147,19 +1144,19 @@
         <v>45</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="H5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>6</v>
@@ -1174,7 +1171,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>32</v>
@@ -1183,19 +1180,19 @@
         <v>45</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>6</v>
@@ -1210,7 +1207,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>32</v>
@@ -1219,19 +1216,19 @@
         <v>45</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>46</v>
       </c>
       <c r="H7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>6</v>
@@ -1246,7 +1243,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>32</v>
@@ -1255,19 +1252,19 @@
         <v>45</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
       <c r="H8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>6</v>
@@ -1282,7 +1279,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>32</v>
@@ -1291,19 +1288,19 @@
         <v>45</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="J9" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>6</v>
@@ -1317,7 +1314,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>32</v>
@@ -1326,19 +1323,19 @@
         <v>45</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="J10" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>6</v>
@@ -1346,15 +1343,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
@@ -1362,10 +1359,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1417,7 +1414,7 @@
         <v>43</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>2</v>
@@ -1429,7 +1426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
@@ -1437,7 +1434,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>32</v>
@@ -1446,22 +1443,22 @@
         <v>45</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>6</v>
@@ -1469,7 +1466,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
